--- a/db/dummydata/speedtrans/speedtrans__addons.xlsx
+++ b/db/dummydata/speedtrans/speedtrans__addons.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>EFFECTIVE_DATE</t>
   </si>
   <si>
     <t>EXPIRATION_DATE</t>
+  </si>
+  <si>
+    <t>CARRIER</t>
   </si>
   <si>
     <t>DESTINATION</t>
@@ -271,7 +274,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -325,13 +328,13 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="4" t="s">
@@ -345,22 +348,23 @@
       </c>
       <c r="AC1" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
         <f>Today()</f>
-        <v>43306</v>
+        <v>43336</v>
       </c>
       <c r="B2" s="5">
         <f>A2+365</f>
-        <v>43671</v>
+        <v>43701</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
@@ -379,26 +383,26 @@
       <c r="K2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="L2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="6"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="6">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="6">
         <v>75.0</v>
       </c>
-      <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="6"/>
-      <c r="W2" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="6"/>
       <c r="X2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AA2" s="9" t="s">
@@ -409,6 +413,9 @@
       </c>
       <c r="AC2" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -424,20 +431,21 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="6"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="9"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="6"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="4"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
-      <c r="AC3" s="10"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="5"/>
@@ -451,21 +459,22 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="6"/>
-      <c r="W4" s="11"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="6"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="13"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="5"/>
@@ -479,14 +488,15 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="6"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="5"/>
@@ -500,14 +510,15 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="6"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
@@ -521,14 +532,15 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="6"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="5"/>
@@ -537,17 +549,17 @@
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="5"/>
@@ -576,7 +588,7 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
@@ -585,7 +597,7 @@
     <row r="20">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="5"/>
@@ -594,27 +606,27 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
@@ -623,7 +635,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="5"/>
@@ -648,12 +660,12 @@
     <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
@@ -722,32 +734,32 @@
     <row r="52">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
-      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
-      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
-      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58">
       <c r="A58" s="5"/>
